--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3108595.518999077</v>
+        <v>3103972.519596167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8412881.176425392</v>
+        <v>8412881.17642539</v>
       </c>
     </row>
     <row r="11">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40.36809222617124</v>
+      </c>
+      <c r="G2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>37.58914653731198</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,67 +746,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44.46519227902341</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44.46519227902342</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,28 +822,28 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>8.386866521745262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F5" t="n">
         <v>53.79631798062264</v>
@@ -913,7 +913,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>32.22184835001295</v>
       </c>
       <c r="U5" t="n">
-        <v>32.22184835001295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E6" t="n">
+        <v>53.79631798062264</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>47.38379687733242</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>52.6063073409206</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="G8" t="n">
-        <v>170.1331892653133</v>
+        <v>111.5955981395604</v>
       </c>
       <c r="H8" t="n">
-        <v>142.9772673631764</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>152.6847994490672</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>55.70610478157396</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>39.9603332220914</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642502</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271202</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015661</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.65827373494383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>22.67871628332735</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2488347172667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.85685983116047</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>163.7376676529344</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>183.290622579669</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>220.9987113889034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>140.176011444185</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>285.3747924869241</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.3262991707162</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0635245304618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G31" t="n">
-        <v>40.53421095546916</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>73.56194264363255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>101.3999237630426</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>10.74993283584276</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>140.7215037338436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.188673966789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="D2" t="n">
-        <v>48.95295437098331</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E2" t="n">
-        <v>48.95295437098331</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="F2" t="n">
-        <v>42.00745362177985</v>
+        <v>110.1624252436922</v>
       </c>
       <c r="G2" t="n">
-        <v>4.038618735606123</v>
+        <v>59.16976444058463</v>
       </c>
       <c r="H2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I2" t="n">
-        <v>4.038618735606123</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>51.99721622092883</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N2" t="n">
         <v>151.9530299271804</v>
@@ -4354,19 +4354,19 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W2" t="n">
         <v>150.9382759771985</v>
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="D3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="E3" t="n">
-        <v>106.0239403418214</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="M3" t="n">
-        <v>107.8852500825564</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="N3" t="n">
-        <v>107.8852500825564</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8631569356822</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
       </c>
       <c r="R3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y3" t="n">
         <v>150.9382759771985</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.65552147681089</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="C4" t="n">
-        <v>72.65552147681089</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="D4" t="n">
-        <v>72.65552147681089</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="E4" t="n">
-        <v>72.65552147681089</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="F4" t="n">
-        <v>21.66286067370327</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="G4" t="n">
-        <v>21.66286067370327</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="H4" t="n">
-        <v>21.66286067370327</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="I4" t="n">
-        <v>21.66286067370327</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="K4" t="n">
-        <v>4.038618735606123</v>
+        <v>40.48137202578608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.46089541307574</v>
+        <v>73.9036487032557</v>
       </c>
       <c r="M4" t="n">
-        <v>83.0891231149967</v>
+        <v>119.5318764051767</v>
       </c>
       <c r="N4" t="n">
-        <v>133.0670299681225</v>
+        <v>169.5097832583024</v>
       </c>
       <c r="O4" t="n">
-        <v>163.2134205911211</v>
+        <v>199.656173881301</v>
       </c>
       <c r="P4" t="n">
-        <v>165.4881834901262</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="R4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V4" t="n">
-        <v>114.4955226870186</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W4" t="n">
-        <v>72.65552147681089</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X4" t="n">
-        <v>72.65552147681089</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.65552147681089</v>
+        <v>201.9309367803062</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>182.6379503568209</v>
+      </c>
+      <c r="C5" t="n">
+        <v>182.6379503568209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>182.6379503568209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>128.2982352248789</v>
+      </c>
+      <c r="F5" t="n">
         <v>73.95852009293679</v>
       </c>
-      <c r="C5" t="n">
-        <v>73.95852009293679</v>
-      </c>
-      <c r="D5" t="n">
-        <v>73.95852009293679</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73.95852009293679</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.61880496099473</v>
-      </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
         <v>4.303705438449811</v>
@@ -4570,7 +4570,7 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>57.56206023926622</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
         <v>57.56206023926622</v>
@@ -4579,13 +4579,13 @@
         <v>110.8204150400826</v>
       </c>
       <c r="N5" t="n">
-        <v>110.8204150400826</v>
+        <v>164.078769840899</v>
       </c>
       <c r="O5" t="n">
-        <v>164.078769840899</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
-        <v>210.024473605</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4597,7 +4597,7 @@
         <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>215.1852719224906</v>
+        <v>182.6379503568209</v>
       </c>
       <c r="U5" t="n">
         <v>182.6379503568209</v>
@@ -4606,13 +4606,13 @@
         <v>182.6379503568209</v>
       </c>
       <c r="W5" t="n">
-        <v>128.2982352248789</v>
+        <v>182.6379503568209</v>
       </c>
       <c r="X5" t="n">
-        <v>128.2982352248789</v>
+        <v>182.6379503568209</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.95852009293679</v>
+        <v>182.6379503568209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="C6" t="n">
         <v>160.8455567905485</v>
-      </c>
-      <c r="C6" t="n">
-        <v>106.5058416586064</v>
       </c>
       <c r="D6" t="n">
         <v>106.5058416586064</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="F6" t="n">
-        <v>58.64342057039187</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="G6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4646,25 +4646,25 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>10.61032575544672</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
-        <v>63.86868055626314</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L6" t="n">
-        <v>117.1270353570795</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M6" t="n">
-        <v>161.9269171216741</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N6" t="n">
         <v>161.9269171216741</v>
       </c>
       <c r="O6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4704,22 +4704,22 @@
         <v>126.8641862134551</v>
       </c>
       <c r="C7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="D7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="E7" t="n">
-        <v>19.38678689876497</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="F7" t="n">
-        <v>19.38678689876497</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="G7" t="n">
-        <v>19.38678689876497</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="H7" t="n">
-        <v>19.38678689876497</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="I7" t="n">
         <v>19.38678689876497</v>
@@ -4746,19 +4746,19 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
         <v>126.8641862134551</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.8293444040545</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="C8" t="n">
-        <v>336.8293444040545</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="D8" t="n">
-        <v>336.8293444040545</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="E8" t="n">
-        <v>336.8293444040545</v>
+        <v>452.4122580239938</v>
       </c>
       <c r="F8" t="n">
-        <v>329.883843654851</v>
+        <v>280.5605516953943</v>
       </c>
       <c r="G8" t="n">
-        <v>158.0321373262518</v>
+        <v>167.837725291798</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122506</v>
+        <v>167.837725291798</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="J8" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="K8" t="n">
-        <v>182.0425125138852</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="L8" t="n">
-        <v>311.1286174198474</v>
+        <v>175.2371849432728</v>
       </c>
       <c r="M8" t="n">
-        <v>343.6690423159328</v>
+        <v>343.6690423159332</v>
       </c>
       <c r="N8" t="n">
-        <v>512.1008996885929</v>
+        <v>512.1008996885935</v>
       </c>
       <c r="O8" t="n">
-        <v>680.5327570612531</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="P8" t="n">
-        <v>680.5327570612531</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612531</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="R8" t="n">
-        <v>680.5327570612531</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="S8" t="n">
-        <v>680.5327570612531</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="T8" t="n">
-        <v>680.5327570612531</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="U8" t="n">
-        <v>680.5327570612531</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="V8" t="n">
-        <v>680.5327570612531</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="W8" t="n">
-        <v>508.6810507326538</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="X8" t="n">
-        <v>508.6810507326538</v>
+        <v>624.2639643525932</v>
       </c>
       <c r="Y8" t="n">
-        <v>508.6810507326538</v>
+        <v>624.2639643525932</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.01697597599781</v>
+        <v>640.1687841096464</v>
       </c>
       <c r="C9" t="n">
-        <v>76.01697597599781</v>
+        <v>468.3170777810469</v>
       </c>
       <c r="D9" t="n">
-        <v>76.01697597599781</v>
+        <v>319.3826681197956</v>
       </c>
       <c r="E9" t="n">
-        <v>76.01697597599781</v>
+        <v>160.1452131143401</v>
       </c>
       <c r="F9" t="n">
-        <v>76.01697597599781</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="G9" t="n">
-        <v>76.01697597599781</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="H9" t="n">
-        <v>76.01697597599781</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122506</v>
+        <v>87.88972643578347</v>
       </c>
       <c r="K9" t="n">
-        <v>13.61065514122506</v>
+        <v>256.3215838084438</v>
       </c>
       <c r="L9" t="n">
-        <v>182.0425125138852</v>
+        <v>308.4011794538087</v>
       </c>
       <c r="M9" t="n">
-        <v>267.1839884756279</v>
+        <v>368.8769740468322</v>
       </c>
       <c r="N9" t="n">
-        <v>343.6690423159328</v>
+        <v>445.3620278871373</v>
       </c>
       <c r="O9" t="n">
-        <v>512.1008996885929</v>
+        <v>493.1111143841738</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612531</v>
+        <v>512.1008996885935</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612531</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="R9" t="n">
-        <v>629.6635680484126</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="S9" t="n">
-        <v>471.2943968347094</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="T9" t="n">
-        <v>471.2943968347094</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="U9" t="n">
-        <v>299.4426905061101</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="V9" t="n">
-        <v>299.4426905061101</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="W9" t="n">
-        <v>299.4426905061101</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="X9" t="n">
-        <v>299.4426905061101</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="Y9" t="n">
-        <v>244.2323129960658</v>
+        <v>680.5327570612538</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.437760916242</v>
+        <v>627.4665185617712</v>
       </c>
       <c r="C10" t="n">
-        <v>171.437760916242</v>
+        <v>458.5303356338643</v>
       </c>
       <c r="D10" t="n">
-        <v>171.437760916242</v>
+        <v>308.4136962215285</v>
       </c>
       <c r="E10" t="n">
-        <v>171.437760916242</v>
+        <v>160.5006026391354</v>
       </c>
       <c r="F10" t="n">
-        <v>171.437760916242</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="G10" t="n">
-        <v>171.437760916242</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122506</v>
+        <v>13.61065514122508</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057944</v>
+        <v>68.90447724057958</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340612</v>
+        <v>195.1879671340615</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694233</v>
+        <v>338.7253240694238</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004831</v>
+        <v>484.2842999004837</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689114</v>
+        <v>602.7152779689121</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612531</v>
+        <v>680.5327570612538</v>
       </c>
       <c r="Q10" t="n">
-        <v>680.5327570612531</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="R10" t="n">
-        <v>680.5327570612531</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="S10" t="n">
-        <v>508.6810507326538</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="T10" t="n">
-        <v>508.6810507326538</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="U10" t="n">
-        <v>508.6810507326538</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="V10" t="n">
-        <v>343.2894672448413</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="W10" t="n">
-        <v>343.2894672448413</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="X10" t="n">
-        <v>171.437760916242</v>
+        <v>650.3743127873544</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.437760916242</v>
+        <v>650.3743127873544</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2011.9205024778</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.845275821998</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1468.160787616111</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1178.743617579151</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>950.7540666811333</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1465.154832249753</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.737662212792</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>947.7481113147751</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.955532171245</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3336.216066251167</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3167.27988332326</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3017.163243910925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3738.657110224937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3517.864531081407</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532264</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4663485834661</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2233.355914590559</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2728.681520806318</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3326.06000843287</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3953.657971987477</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>4230.570347950414</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.647281583949</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243707</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661314</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.617138214751</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.617138214751</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>3598.088325557719</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>3377.295746414189</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6603,22 +6603,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>216.8470138298251</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,58 +6688,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3275.130390493382</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.194207565475</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2956.077568153139</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2808.164474570746</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.274527072836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2494.078427787716</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467151</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3677.571434467151</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3456.778855323621</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7490,22 +7490,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>256.7644825146879</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>262.5442413612734</v>
       </c>
       <c r="N2" t="n">
-        <v>263.3879167614743</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>214.5102874732696</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>178.2892129380686</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
         <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
         <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>260.1731688314972</v>
+        <v>257.9995802262195</v>
       </c>
       <c r="P5" t="n">
-        <v>257.3971651030746</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>175.9947778369091</v>
       </c>
       <c r="M6" t="n">
-        <v>168.2998526529178</v>
+        <v>174.67017620544</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>165.5462778056219</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.81818816105587</v>
+        <v>53.81818816105572</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5416738613675</v>
+        <v>29.40848459605402</v>
       </c>
       <c r="L8" t="n">
-        <v>129.5993236458042</v>
+        <v>162.468439702456</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>137.2640732086613</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0718040433903</v>
+        <v>132.0718040433901</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500777</v>
+        <v>147.6628633500776</v>
       </c>
       <c r="P8" t="n">
-        <v>15.67159251783622</v>
+        <v>15.67159251783593</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.42805331804698</v>
+        <v>60.42805331804678</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039641055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752798</v>
+        <v>178.4614495570661</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874636</v>
+        <v>17.0135802891853</v>
       </c>
       <c r="M9" t="n">
-        <v>24.91482966537313</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>121.9017887632564</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477178</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822002019</v>
+        <v>207.7342274853335</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>30.95754073885419</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.11482774761927</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.13893193492459</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>6.25795120238422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.148205849666908</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.25835418137862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>80.6461308585753</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.40333084624564</v>
       </c>
       <c r="G31" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>66.73277020259134</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>47.21554925516972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>207.834720516252</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>149.7636788678789</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>58.15585306139381</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.6583438911</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287559</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287549</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543768</v>
+        <v>325486.3975543772</v>
       </c>
       <c r="E3" t="n">
         <v>1098807.963756739</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573667</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317183812</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031358</v>
+        <v>29443.81509031375</v>
       </c>
       <c r="M3" t="n">
         <v>249845.7249299117</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392210.9417384904</v>
+        <v>392210.9417384903</v>
       </c>
       <c r="C4" t="n">
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278909</v>
+        <v>306360.6503278907</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719673</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,13 +26450,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719706</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241474</v>
+        <v>52100.52571241476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>249908.0448485035</v>
       </c>
       <c r="C6" t="n">
-        <v>279465.6551466252</v>
+        <v>279465.655146625</v>
       </c>
       <c r="D6" t="n">
-        <v>34463.97503656564</v>
+        <v>34463.97503656527</v>
       </c>
       <c r="E6" t="n">
-        <v>-501184.5873136103</v>
+        <v>-501531.9665679669</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.997188772</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431283</v>
+        <v>597275.9971887715</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887722</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431281</v>
+        <v>597275.9971887714</v>
       </c>
       <c r="J6" t="n">
-        <v>584414.8719373918</v>
+        <v>584067.4926830349</v>
       </c>
       <c r="K6" t="n">
-        <v>596770.5660114102</v>
+        <v>596423.1867570532</v>
       </c>
       <c r="L6" t="n">
-        <v>568179.5613528149</v>
+        <v>567832.1820984581</v>
       </c>
       <c r="M6" t="n">
-        <v>347777.6515132166</v>
+        <v>347430.2722588598</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431287</v>
+        <v>597275.9971887718</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431285</v>
+        <v>597275.9971887711</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431285</v>
+        <v>597275.9971887713</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.496390726949487e-14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>6.496390726949487e-14</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>6.496390726949487e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075089</v>
+        <v>372.8820094075094</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653133</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26916,31 +26916,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.496390726949487e-14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883836</v>
+        <v>337.860748688384</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341648</v>
+        <v>995.0934909341646</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846906</v>
+        <v>116.3368712846908</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834335</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507677</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
         <v>3.313583785545916</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846904</v>
+        <v>116.3368712846911</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834335</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846906</v>
+        <v>116.3368712846908</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834335</v>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.251107468404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.2003074256064</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>366.5079535155402</v>
       </c>
       <c r="G2" t="n">
-        <v>377.6210748665194</v>
+        <v>364.7274872087548</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>288.0445872958018</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>298.7582345223365</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1798881763775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.58647819830733</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>43.22714760926622</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.60172783196103</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27557,13 +27557,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>103.7197363071342</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>39.94242826331492</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.061132996970912</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.20428827091266</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>245.1013971384854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>328.1340520916391</v>
       </c>
       <c r="F5" t="n">
         <v>353.0797277610888</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>284.2366289136782</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27669,22 +27669,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>190.2576974199557</v>
       </c>
       <c r="U5" t="n">
-        <v>219.1125414387983</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>295.4446507367904</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.441620675431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.7368656692447</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>93.64874758401612</v>
       </c>
       <c r="E6" t="n">
-        <v>110.2612835780685</v>
+        <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>89.88439153640687</v>
       </c>
       <c r="H6" t="n">
-        <v>57.71160912282181</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>114.6405137577072</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>107.8693661172546</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>100.9449818411103</v>
       </c>
       <c r="J7" t="n">
         <v>88.89425643449839</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27833,7 +27833,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>198.3413253432054</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.6006523981673</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.7971808069483</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>236.742856476398</v>
       </c>
       <c r="G8" t="n">
-        <v>243.6705250964247</v>
+        <v>302.2081162221776</v>
       </c>
       <c r="H8" t="n">
-        <v>181.1456638828635</v>
+        <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490673</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157407</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.8610794782107</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>179.1077794520997</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>126.5728504277759</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>2.575309723002277</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27952,7 +27952,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.78225762642499</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271195</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.7854795015661</v>
       </c>
       <c r="T9" t="n">
         <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
-        <v>55.75542649357558</v>
+        <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>151.0244220423605</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>157.1532638986099</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416839</v>
+        <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712857</v>
+        <v>45.81978032712851</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116054</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>147.0593845160295</v>
       </c>
       <c r="S10" t="n">
-        <v>42.16513316454106</v>
+        <v>212.2983224298543</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -28070,13 +28070,13 @@
         <v>286.2823524375328</v>
       </c>
       <c r="V10" t="n">
-        <v>88.39997567089364</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>55.57646612372389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.49902315339702</v>
+        <v>1.499023153397022</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972723</v>
+        <v>15.35187086972725</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133866</v>
+        <v>57.79109012133873</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656304</v>
+        <v>127.2277163656306</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489263</v>
+        <v>190.6813664489265</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797004</v>
+        <v>236.5570962797007</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839246</v>
+        <v>263.2153492839249</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185139</v>
+        <v>267.4744488185142</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369223</v>
+        <v>252.5685373369226</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374333</v>
+        <v>215.5614032374336</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564025</v>
+        <v>161.8776365564027</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957561</v>
+        <v>94.16301315957573</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803462</v>
+        <v>34.15899010803466</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995457</v>
+        <v>6.561973853995465</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717616</v>
+        <v>0.1199218522717617</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067173</v>
+        <v>0.8020480957067183</v>
       </c>
       <c r="H9" t="n">
-        <v>7.74609608222014</v>
+        <v>7.746096082220149</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499005</v>
+        <v>27.61437522499008</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025615</v>
+        <v>75.77595627025623</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826062</v>
+        <v>129.5131786826064</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577239</v>
+        <v>174.1464516577241</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270923</v>
+        <v>203.2206951270926</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250554</v>
+        <v>208.5993422250557</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465013</v>
+        <v>190.8276449465015</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319257</v>
+        <v>153.1560087319259</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660013</v>
+        <v>102.3807358660015</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993111</v>
+        <v>49.79733702993118</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227169</v>
+        <v>14.89769160227171</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666466987</v>
+        <v>3.232816666466991</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596826</v>
+        <v>0.05276632208596833</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987865</v>
+        <v>0.6724101808987873</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172851</v>
+        <v>5.978337790172858</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557442</v>
+        <v>20.22120798557445</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954421</v>
+        <v>47.53939978954426</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078627</v>
+        <v>78.12183738078636</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017051</v>
+        <v>99.96905544017064</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657979</v>
+        <v>105.4033522657981</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369935</v>
+        <v>102.8970961369936</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013033</v>
+        <v>95.04212266013045</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979502</v>
+        <v>81.32495496979512</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053384</v>
+        <v>56.30518342053391</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686113997</v>
+        <v>30.23400686114001</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711794</v>
+        <v>11.71827560711795</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385723</v>
+        <v>2.873025318385727</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811567</v>
+        <v>0.03667691895811571</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7287743289961</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>305.5427724581384</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3057151140777</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948333</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33757,7 +33757,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="M2" t="n">
         <v>48.44302776295223</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.48273419507654</v>
-      </c>
       <c r="N2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="O3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>53.79631798062264</v>
+        <v>51.62272937534497</v>
       </c>
       <c r="P5" t="n">
-        <v>46.40980178192013</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="M6" t="n">
-        <v>45.25240582282282</v>
+        <v>51.62272937534495</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>170.1331892653133</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>130.3900049555174</v>
+        <v>163.2591210121695</v>
       </c>
       <c r="M8" t="n">
-        <v>32.8691160566519</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="N8" t="n">
-        <v>170.1331892653133</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653133</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.02936494399837</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653133</v>
+        <v>52.60565216703522</v>
       </c>
       <c r="M9" t="n">
-        <v>86.00149087044716</v>
+        <v>61.08666120507425</v>
       </c>
       <c r="N9" t="n">
-        <v>77.2576301417221</v>
+        <v>77.25763014172236</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1331892653133</v>
+        <v>48.23140050205708</v>
       </c>
       <c r="P9" t="n">
-        <v>170.1331892653133</v>
+        <v>19.18160131759566</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>170.1331892653135</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490342</v>
+        <v>55.85234555490351</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004866</v>
+        <v>127.5590807004868</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276385</v>
+        <v>144.9872292276387</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162221</v>
+        <v>147.0292685162222</v>
       </c>
       <c r="O10" t="n">
-        <v>119.62725057417</v>
+        <v>119.6272505741701</v>
       </c>
       <c r="P10" t="n">
-        <v>78.6035142346885</v>
+        <v>78.6035142346886</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>244.1325298845517</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,10 +35895,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>279.7094706696333</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.804909272815</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
